--- a/templates/Excel/ST2_Line_setup.xlsx
+++ b/templates/Excel/ST2_Line_setup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +533,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-26T12:44</t>
+          <t>2025-04-08T11:13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,17 +541,25 @@
           <t>SHIFT_1</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>96.2</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -605,114 +613,17 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>t</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-26T12:44</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SHIFT_1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>t</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/templates/Excel/ST2_Line_setup.xlsx
+++ b/templates/Excel/ST2_Line_setup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,15 +541,11 @@
           <t>SHIFT_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -611,17 +607,108 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-04-15T16:59</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SHIFT_2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
